--- a/gd/玩法规划/试练塔怪物设计.xlsx
+++ b/gd/玩法规划/试练塔怪物设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\玩法规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="363">
   <si>
     <t>试练塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,22 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绿小丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红小丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绿色小丑需要配置死亡反应为群体治疗己方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水鬼（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木蜥蜴人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红牛（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火凯瑞斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,14 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>皮影（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>momo（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光射手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潘神（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火伊芙利特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,14 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光嫦娥</t>
   </si>
   <si>
@@ -385,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火道成寺钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,10 +381,6 @@
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgNvyao5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,10 +489,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>xgWeitianshi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Support</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bossxiaoxiang23Panshen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,10 +592,6 @@
   </si>
   <si>
     <t>受伤比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI可选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,10 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xgChange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,14 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.AOE和AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强球/柱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -897,18 +825,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xgDujiaoshou1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偏增益buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bossxiaoxiang25Kairuisi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">暗   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1103,10 +1023,6 @@
   </si>
   <si>
     <t>3.每5回合使用技能5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgXiaochou2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1147,10 +1063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xgXiaochou4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1170,10 +1082,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosshuoshan47Ifrit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1220,9 +1128,6 @@
     <t>受伤比</t>
   </si>
   <si>
-    <t>AI可选</t>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1406,10 +1311,6 @@
   </si>
   <si>
     <t>在每个阶段仍需判断是否总回合数&gt;=20，若满足条件则优先释放技能6（只会释放一次，用相同计数器判定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色小丑需要配置死亡反应为群体伤害己方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1426,6 +1327,185 @@
       </rPr>
       <t>死亡时己方群体受到火属性伤害</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗皮影（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光momo（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火红牛（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火火鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木潘神（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火红牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水鬼（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性小丑需要配置死亡反应为群体伤害玩家怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性小丑需要配置死亡反应为群体治疗玩家怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若换ID，则ID配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaMoguguai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaZouyincao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHongniu4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaMomo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLangren3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHuapo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLonggongtongzi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaSaibulesi4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaPanshen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaAmute3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLuoxinfu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLongnv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaDaochengsizhong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaKairuisi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaShuigui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaWendige2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaXiaochou3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHetong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaIfrit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaNvyao5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaWeitianshi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaChange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaDujiaoshou1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaXiaochou4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaXiaochou2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木潘神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗凯瑞斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散己方减益buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于XX%，附加物理和魔法吸收盾；前置技能，给自己添加法术免疫buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE可选</t>
+  </si>
+  <si>
+    <t>群体光属性伤害并回复自身XX%法攻血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击时，若敌方拥有弱化效果则伤害量+XX%；前置技能，给自己添加法术免疫buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2777,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2788,12 +2868,15 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2801,12 +2884,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2814,46 +2897,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2861,43 +2947,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2905,45 +2994,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
@@ -2951,45 +3043,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2997,50 +3092,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
@@ -3048,43 +3146,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>6</v>
       </c>
@@ -3092,43 +3193,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G54" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
@@ -3136,43 +3240,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C68" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
@@ -3180,46 +3287,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
         <v>6</v>
       </c>
@@ -3227,48 +3337,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G78" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="I78" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I79" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C85" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
@@ -3276,43 +3395,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G87" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C93" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D94" s="1" t="s">
         <v>6</v>
       </c>
@@ -3320,43 +3442,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G95" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D102" s="1" t="s">
         <v>6</v>
       </c>
@@ -3364,43 +3489,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G103" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C109" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D110" s="1" t="s">
         <v>6</v>
       </c>
@@ -3408,46 +3536,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G111" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C117" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D118" s="1" t="s">
         <v>6</v>
       </c>
@@ -3455,48 +3586,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G119" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I119" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I120" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C126" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D127" s="1" t="s">
         <v>6</v>
       </c>
@@ -3504,43 +3644,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E128" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G128" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C134" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3548,46 +3691,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G136" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C142" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="141" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C142" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D142" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D143" s="1" t="s">
         <v>6</v>
       </c>
@@ -3595,60 +3741,69 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="G144" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="I144" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="I145" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E148" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="I148" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D150" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E151" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E152" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C154" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D155" s="1" t="s">
         <v>6</v>
       </c>
@@ -3656,45 +3811,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E156" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G156" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G157" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D159" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C162" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D163" s="1" t="s">
         <v>6</v>
       </c>
@@ -3702,49 +3860,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E164" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G164" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E165" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D167" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E168" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D171" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E172" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="174" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3756,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T278"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3771,55 +3932,55 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C6" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3828,65 +3989,65 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C9" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C10" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C14" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -3899,49 +4060,49 @@
     <row r="17" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
       <c r="C22" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -3952,118 +4113,122 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
       <c r="C25" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
       <c r="C28" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4072,10 +4237,10 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4084,7 +4249,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F42" s="11">
         <v>1</v>
@@ -4096,10 +4261,10 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -4108,10 +4273,10 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -4120,7 +4285,7 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4131,7 +4296,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -4147,16 +4312,16 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -4165,10 +4330,10 @@
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -4177,10 +4342,10 @@
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -4189,7 +4354,7 @@
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F51" s="11">
         <v>2</v>
@@ -4201,10 +4366,10 @@
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -4213,10 +4378,10 @@
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -4225,7 +4390,7 @@
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4236,7 +4401,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -4245,7 +4410,7 @@
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4256,7 +4421,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -4265,7 +4430,7 @@
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4276,7 +4441,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -4290,24 +4455,24 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -4315,401 +4480,408 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="9" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="11"/>
       <c r="I64" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
       <c r="D68" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
       <c r="D69" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
       <c r="D70" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D71" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C77" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C80" s="9"/>
       <c r="D80" s="8"/>
-      <c r="J80" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C81" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C82" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C83" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C84" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C85" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>208</v>
+        <v>362</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="87" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B88" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C89" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C90" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C91" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C92" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C93" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C94" s="9"/>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C95" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C96" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C97" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C98" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C99" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>208</v>
+        <v>359</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="101" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C103" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C104" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C105" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C106" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C107" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C108" s="2"/>
       <c r="D108" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C111" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D112" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G115" s="11">
         <v>1</v>
@@ -4718,25 +4890,25 @@
     <row r="116" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E117" s="8"/>
       <c r="F117" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E118" s="8"/>
       <c r="F118" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G118" s="4"/>
     </row>
@@ -4744,7 +4916,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.15">
@@ -4754,37 +4926,37 @@
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D121" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F122" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F123" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F124" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G124" s="11">
         <v>1.5</v>
@@ -4793,25 +4965,25 @@
     <row r="125" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E126" s="8"/>
       <c r="F126" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E127" s="8"/>
       <c r="F127" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G127" s="4"/>
     </row>
@@ -4819,13 +4991,13 @@
       <c r="E128" s="8"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G129" s="8"/>
     </row>
@@ -4833,20 +5005,20 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E131" s="8"/>
       <c r="F131" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.15">
@@ -4855,37 +5027,37 @@
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D134" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F135" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F136" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F137" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G137" s="11">
         <v>1</v>
@@ -4894,25 +5066,25 @@
     <row r="138" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E139" s="8"/>
       <c r="F139" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E140" s="8"/>
       <c r="F140" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G140" s="4"/>
     </row>
@@ -4920,13 +5092,13 @@
       <c r="E141" s="8"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G142" s="8"/>
     </row>
@@ -4934,147 +5106,147 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F144" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F145" s="4"/>
       <c r="G145" s="8" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="3:13" x14ac:dyDescent="0.15">
       <c r="K146" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C147" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F147" s="8"/>
       <c r="K147" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C148" s="9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C149" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C150" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C151" s="9" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C152" s="15" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
@@ -5082,70 +5254,70 @@
     </row>
     <row r="154" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C154" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C155" s="2"/>
       <c r="D155" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C156" s="2"/>
       <c r="E156" s="13" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C157" s="2"/>
       <c r="E157" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E158" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E159" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E161" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D162" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E163" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E164" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E165" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E166" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5157,50 +5329,50 @@
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" s="8"/>
       <c r="C170" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>263</v>
+        <v>115</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="E170" s="8"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" s="8"/>
       <c r="C171" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="E171" s="8"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" s="8"/>
       <c r="C172" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E172" s="8"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" s="8"/>
       <c r="C173" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E173" s="8"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" s="8"/>
       <c r="C174" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E174" s="8"/>
     </row>
@@ -5213,49 +5385,49 @@
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" s="8"/>
       <c r="C176" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B177" s="8"/>
       <c r="C177" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B178" s="8"/>
       <c r="C178" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B179" s="8"/>
       <c r="C179" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C180" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="E180" s="8"/>
     </row>
@@ -5267,10 +5439,10 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C184" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>269</v>
+        <v>115</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
@@ -5278,10 +5450,10 @@
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C185" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
@@ -5289,10 +5461,10 @@
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C186" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
@@ -5300,10 +5472,10 @@
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C187" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
@@ -5312,10 +5484,10 @@
     <row r="188" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B188" s="8"/>
       <c r="C188" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
@@ -5336,10 +5508,10 @@
     <row r="190" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B190" s="8"/>
       <c r="C190" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
@@ -5350,10 +5522,10 @@
     <row r="191" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B191" s="8"/>
       <c r="C191" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
@@ -5364,10 +5536,10 @@
     <row r="192" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B192" s="8"/>
       <c r="C192" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
@@ -5378,10 +5550,10 @@
     <row r="193" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B193" s="8"/>
       <c r="C193" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
@@ -5392,10 +5564,10 @@
     <row r="194" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B194" s="8"/>
       <c r="C194" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
@@ -5406,13 +5578,13 @@
     <row r="195" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B195" s="8"/>
       <c r="C195" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
@@ -5423,10 +5595,10 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -5436,15 +5608,15 @@
     <row r="198" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B199" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C200" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>276</v>
+        <v>253</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
@@ -5465,10 +5637,10 @@
     </row>
     <row r="201" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C201" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -5489,10 +5661,10 @@
     </row>
     <row r="202" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C202" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
@@ -5513,10 +5685,10 @@
     </row>
     <row r="203" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C203" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
@@ -5537,7 +5709,7 @@
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C204" s="9" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
@@ -5599,7 +5771,7 @@
     </row>
     <row r="207" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C207" s="9" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
@@ -5622,16 +5794,16 @@
     <row r="208" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C208" s="8"/>
       <c r="D208" s="8" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
@@ -5651,13 +5823,13 @@
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="1" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
@@ -5678,10 +5850,10 @@
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
       <c r="F210" s="8" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
@@ -5702,7 +5874,7 @@
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
       <c r="F211" s="8" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="G211" s="16">
         <v>1</v>
@@ -5726,10 +5898,10 @@
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
@@ -5750,10 +5922,10 @@
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
       <c r="F213" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
@@ -5774,7 +5946,7 @@
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
       <c r="F214" s="8" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
@@ -5797,10 +5969,10 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
@@ -5838,16 +6010,16 @@
     <row r="217" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C217" s="8"/>
       <c r="D217" s="8" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -5868,10 +6040,10 @@
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
       <c r="F218" s="8" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
@@ -5892,10 +6064,10 @@
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
       <c r="F219" s="8" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
@@ -5916,7 +6088,7 @@
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
       <c r="F220" s="8" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="G220" s="16">
         <v>1</v>
@@ -5940,10 +6112,10 @@
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
       <c r="F221" s="8" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
@@ -5964,10 +6136,10 @@
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
       <c r="F222" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
@@ -5988,7 +6160,7 @@
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
@@ -6011,10 +6183,10 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
@@ -6034,7 +6206,7 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
@@ -6057,10 +6229,10 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="G226" s="1" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
@@ -6098,16 +6270,16 @@
     <row r="228" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C228" s="8"/>
       <c r="D228" s="8" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
@@ -6127,13 +6299,13 @@
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
@@ -6154,10 +6326,10 @@
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
@@ -6178,7 +6350,7 @@
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
       <c r="F231" s="8" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="G231" s="16">
         <v>1</v>
@@ -6202,10 +6374,10 @@
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="F232" s="8" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
@@ -6226,10 +6398,10 @@
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="F233" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
@@ -6250,7 +6422,7 @@
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
@@ -6273,10 +6445,10 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
       <c r="G235" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
@@ -6296,7 +6468,7 @@
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
       <c r="F236" s="8" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
@@ -6319,7 +6491,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
       <c r="G237" s="1" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
@@ -6357,16 +6529,16 @@
     <row r="239" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C239" s="8"/>
       <c r="D239" s="8" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
@@ -6386,13 +6558,13 @@
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
@@ -6413,10 +6585,10 @@
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
       <c r="F241" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
@@ -6437,7 +6609,7 @@
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
       <c r="F242" s="8" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="G242" s="16">
         <v>1</v>
@@ -6461,10 +6633,10 @@
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
       <c r="F243" s="8" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
@@ -6485,10 +6657,10 @@
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
       <c r="F244" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
@@ -6509,7 +6681,7 @@
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
       <c r="F245" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
@@ -6532,10 +6704,10 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
@@ -6555,7 +6727,7 @@
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
       <c r="F247" s="8" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
@@ -6578,7 +6750,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="1" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
@@ -6624,13 +6796,13 @@
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
       <c r="K250" s="9" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="M250" s="9" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="N250" s="8"/>
       <c r="O250" s="8"/>
@@ -6642,13 +6814,13 @@
     </row>
     <row r="251" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C251" s="9" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
@@ -6656,7 +6828,7 @@
       <c r="I251"/>
       <c r="J251"/>
       <c r="K251" s="1" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="M251" s="8"/>
       <c r="N251" s="8"/>
@@ -6669,13 +6841,13 @@
     </row>
     <row r="252" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C252" s="9" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
@@ -6683,7 +6855,7 @@
       <c r="I252"/>
       <c r="J252"/>
       <c r="K252" s="1" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="M252" s="8"/>
       <c r="N252" s="8"/>
@@ -6696,20 +6868,20 @@
     </row>
     <row r="253" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C253" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="F253"/>
       <c r="G253" s="8"/>
       <c r="H253"/>
       <c r="J253"/>
       <c r="K253" s="1" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="M253" s="18"/>
       <c r="N253" s="8"/>
@@ -6722,13 +6894,13 @@
     </row>
     <row r="254" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C254" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E254" s="19" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
@@ -6736,7 +6908,7 @@
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
       <c r="K254" s="8" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="L254" s="8"/>
       <c r="M254" s="8"/>
@@ -6750,13 +6922,13 @@
     </row>
     <row r="255" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C255" s="9" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E255" s="19" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
@@ -6764,7 +6936,7 @@
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
       <c r="K255" s="8" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
@@ -6778,13 +6950,13 @@
     </row>
     <row r="256" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C256" s="21" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="14"/>
@@ -6804,7 +6976,7 @@
     </row>
     <row r="257" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C257" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
@@ -6827,7 +6999,7 @@
     <row r="258" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C258" s="2"/>
       <c r="D258" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E258"/>
       <c r="F258"/>
@@ -6850,7 +7022,7 @@
       <c r="C259" s="2"/>
       <c r="D259"/>
       <c r="E259" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F259"/>
       <c r="G259" s="8"/>
@@ -6872,7 +7044,7 @@
       <c r="C260" s="2"/>
       <c r="D260"/>
       <c r="E260" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F260"/>
       <c r="G260" s="8"/>
@@ -6894,7 +7066,7 @@
       <c r="C261" s="2"/>
       <c r="D261"/>
       <c r="E261" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="F261"/>
       <c r="G261" s="8"/>
@@ -6915,7 +7087,7 @@
     <row r="262" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C262" s="2"/>
       <c r="D262" s="1" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="F262"/>
       <c r="G262" s="8"/>
@@ -6937,7 +7109,7 @@
       <c r="C263" s="2"/>
       <c r="D263"/>
       <c r="E263" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F263"/>
       <c r="G263" s="8"/>
@@ -6959,7 +7131,7 @@
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264" s="1" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="F264"/>
       <c r="G264" s="8"/>
@@ -6980,7 +7152,7 @@
     <row r="265" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C265"/>
       <c r="D265" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="E265" s="8"/>
       <c r="F265"/>
@@ -7003,7 +7175,7 @@
       <c r="C266"/>
       <c r="D266"/>
       <c r="E266" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F266"/>
       <c r="G266" s="8"/>
@@ -7024,7 +7196,7 @@
     <row r="267" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C267"/>
       <c r="E267" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
@@ -7045,7 +7217,7 @@
     <row r="268" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C268"/>
       <c r="D268" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="E268" s="8"/>
       <c r="F268"/>
@@ -7068,7 +7240,7 @@
       <c r="C269"/>
       <c r="D269"/>
       <c r="E269" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="F269"/>
       <c r="G269" s="8"/>
@@ -7090,7 +7262,7 @@
       <c r="C270"/>
       <c r="D270"/>
       <c r="E270" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="F270"/>
       <c r="G270" s="8"/>
@@ -7111,7 +7283,7 @@
     <row r="271" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C271"/>
       <c r="D271" s="7" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="E271" s="7"/>
       <c r="F271" s="20"/>
@@ -7134,7 +7306,7 @@
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F272"/>
       <c r="G272" s="8"/>
@@ -7156,7 +7328,7 @@
       <c r="C273"/>
       <c r="D273" s="8"/>
       <c r="E273" s="1" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
@@ -7177,7 +7349,7 @@
     <row r="274" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C274"/>
       <c r="D274" s="7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
@@ -7200,7 +7372,7 @@
       <c r="C275"/>
       <c r="D275" s="8"/>
       <c r="E275" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="8"/>
@@ -7222,7 +7394,7 @@
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
       <c r="E276" s="1" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
@@ -7242,7 +7414,7 @@
     </row>
     <row r="278" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D278" s="13" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>

--- a/gd/玩法规划/试练塔怪物设计.xlsx
+++ b/gd/玩法规划/试练塔怪物设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="366">
   <si>
     <t>试练塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <t>小丑</t>
   </si>
   <si>
-    <t>水小丑（复用原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暗凯瑞斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水龙宫童子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,39 +234,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火赛布勒斯（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火伊芙利特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火伊芙利特（复用原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水阿姆特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水龙女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水蘑菇怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木走音草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木温迪戈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火道成寺钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1330,182 +1294,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>光momo（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火火鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火红牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水鬼（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性小丑需要配置死亡反应为群体伤害玩家怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性小丑需要配置死亡反应为群体治疗玩家怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若换ID，则ID配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaZouyincao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHongniu4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaMomo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLangren3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHuapo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLonggongtongzi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaSaibulesi4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaPanshen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaAmute3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLuoxinfu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLongnv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaDaochengsizhong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaKairuisi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaShuigui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaWendige2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaXiaochou3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHetong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaIfrit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaNvyao5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaWeitianshi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaChange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaDujiaoshou1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaXiaochou4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaXiaochou2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木潘神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗凯瑞斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散己方减益buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于XX%，附加物理和魔法吸收盾；前置技能，给自己添加法术免疫buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE可选</t>
+  </si>
+  <si>
+    <t>群体光属性伤害并回复自身XX%法攻血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击时，若敌方拥有弱化效果则伤害量+XX%；前置技能，给自己添加法术免疫buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaMoguguai4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>暗皮影（原有设计）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光momo（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火红牛（原有设计）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火火鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木潘神（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火红牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水鬼（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火小丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火属性小丑需要配置死亡反应为群体伤害玩家怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木属性小丑需要配置死亡反应为群体治疗玩家怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木小丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若换ID，则ID配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaMoguguai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaZouyincao2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaHongniu4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaMomo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLangren3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaHuapo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLonggongtongzi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaSaibulesi4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaPanshen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaAmute3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLuoxinfu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLongnv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaDaochengsizhong4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaKairuisi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaShuigui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaWendige2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaXiaochou3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaHetong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaIfrit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaNvyao5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaWeitianshi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaChange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaDujiaoshou1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaXiaochou4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaXiaochou2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木潘神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗凯瑞斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散己方减益buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于XX%，附加物理和魔法吸收盾；前置技能，给自己添加法术免疫buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE可选</t>
-  </si>
-  <si>
-    <t>群体光属性伤害并回复自身XX%法攻血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击时，若敌方拥有弱化效果则伤害量+XX%；前置技能，给自己添加法术免疫buff</t>
+    <t>bossshiliantaPingying5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火蘑菇怪（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木走音草（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木潘神（新增逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火赛布勒斯（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水阿姆特（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙女（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗凯瑞斯（新增逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火道成寺钟（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木温迪戈（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火伊芙利特（新增逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水小丑（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木河童（原有设计）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2859,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I168" sqref="I168"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2873,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2886,7 +2898,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2894,7 +2906,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -2902,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -2913,7 +2925,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2923,11 +2935,13 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>331</v>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2936,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -2944,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2952,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -2963,7 +2977,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2974,10 +2988,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2991,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.15">
@@ -2999,7 +3013,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
@@ -3010,7 +3024,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -3020,19 +3034,17 @@
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>333</v>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.15">
@@ -3040,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.15">
@@ -3048,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
@@ -3059,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3072,16 +3084,16 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
@@ -3089,7 +3101,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -3097,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="1">
         <v>5</v>
@@ -3108,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -3121,10 +3133,10 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3135,7 +3147,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
@@ -3143,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
@@ -3151,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
@@ -3162,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -3173,16 +3185,16 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.15">
@@ -3190,7 +3202,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.15">
@@ -3198,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G54" s="1">
         <v>5</v>
@@ -3209,7 +3221,7 @@
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -3220,16 +3232,16 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.15">
@@ -3237,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.15">
@@ -3245,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G62" s="1">
         <v>5</v>
@@ -3256,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -3267,16 +3279,16 @@
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.15">
@@ -3284,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.15">
@@ -3292,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -3303,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -3314,19 +3326,19 @@
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.15">
@@ -3334,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.15">
@@ -3342,13 +3354,13 @@
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G78" s="1">
         <v>5</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.15">
@@ -3356,13 +3368,13 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
@@ -3370,21 +3382,21 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C85" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
@@ -3392,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
@@ -3400,7 +3412,7 @@
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G87" s="1">
         <v>5</v>
@@ -3411,7 +3423,7 @@
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -3422,16 +3434,16 @@
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C93" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
@@ -3439,7 +3451,7 @@
         <v>6</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
@@ -3447,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G95" s="1">
         <v>5</v>
@@ -3458,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -3469,16 +3481,16 @@
         <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.15">
@@ -3486,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.15">
@@ -3494,7 +3506,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G103" s="1">
         <v>5</v>
@@ -3505,7 +3517,7 @@
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -3516,16 +3528,16 @@
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="109" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C109" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.15">
@@ -3533,7 +3545,7 @@
         <v>6</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.15">
@@ -3541,7 +3553,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G111" s="1">
         <v>5</v>
@@ -3552,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -3563,19 +3575,19 @@
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C117" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
@@ -3583,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.15">
@@ -3591,13 +3603,13 @@
         <v>7</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G119" s="1">
         <v>5</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
@@ -3605,13 +3617,13 @@
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.15">
@@ -3619,21 +3631,21 @@
         <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>49</v>
+        <v>360</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C126" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
@@ -3641,7 +3653,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
@@ -3649,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G128" s="1">
         <v>5</v>
@@ -3660,7 +3672,7 @@
         <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -3671,16 +3683,16 @@
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="134" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C134" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.15">
@@ -3688,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.15">
@@ -3696,7 +3708,7 @@
         <v>7</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G136" s="1">
         <v>5</v>
@@ -3707,7 +3719,7 @@
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
@@ -3718,19 +3730,19 @@
         <v>9</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>61</v>
+        <v>362</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="142" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C142" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.15">
@@ -3738,7 +3750,7 @@
         <v>6</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.15">
@@ -3746,13 +3758,13 @@
         <v>7</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G144" s="1">
         <v>5</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.15">
@@ -3760,13 +3772,13 @@
         <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.15">
@@ -3776,31 +3788,31 @@
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E148" s="1" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E151" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E152" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="154" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C154" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.15">
@@ -3808,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.15">
@@ -3816,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G156" s="1">
         <v>5</v>
@@ -3827,7 +3839,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G157" s="1">
         <v>1</v>
@@ -3840,16 +3852,16 @@
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="162" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C162" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.15">
@@ -3857,7 +3869,7 @@
         <v>6</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.15">
@@ -3865,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G164" s="1">
         <v>5</v>
@@ -3876,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -3889,20 +3901,20 @@
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E168" s="1" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D171" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E172" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3932,55 +3944,55 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3989,65 +4001,65 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C9" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C10" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C14" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -4060,49 +4072,49 @@
     <row r="17" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
       <c r="C22" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -4113,122 +4125,122 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
       <c r="C25" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
       <c r="C28" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4237,10 +4249,10 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4249,7 +4261,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F42" s="11">
         <v>1</v>
@@ -4261,10 +4273,10 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -4273,10 +4285,10 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -4285,7 +4297,7 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4296,7 +4308,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -4312,16 +4324,16 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -4330,10 +4342,10 @@
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -4342,10 +4354,10 @@
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -4354,7 +4366,7 @@
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F51" s="11">
         <v>2</v>
@@ -4366,10 +4378,10 @@
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -4378,10 +4390,10 @@
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -4390,7 +4402,7 @@
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4401,7 +4413,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -4410,7 +4422,7 @@
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4421,7 +4433,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -4430,7 +4442,7 @@
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4441,7 +4453,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -4455,24 +4467,24 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -4480,78 +4492,78 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="11"/>
       <c r="I64" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
@@ -4561,90 +4573,90 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
       <c r="D68" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
       <c r="D69" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
       <c r="D70" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D71" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C77" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
@@ -4653,34 +4665,34 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C81" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C82" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C83" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C84" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -4688,10 +4700,10 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C85" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -4699,50 +4711,50 @@
     <row r="87" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="88" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B88" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C89" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C90" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C91" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C92" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C93" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.15">
@@ -4751,43 +4763,43 @@
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C95" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C96" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C97" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C98" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E98" s="13"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C99" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -4795,93 +4807,93 @@
     <row r="101" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C103" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C104" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C105" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C106" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C107" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C108" s="2"/>
       <c r="D108" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C111" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D112" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G115" s="11">
         <v>1</v>
@@ -4890,25 +4902,25 @@
     <row r="116" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E117" s="8"/>
       <c r="F117" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E118" s="8"/>
       <c r="F118" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G118" s="4"/>
     </row>
@@ -4916,7 +4928,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.15">
@@ -4926,37 +4938,37 @@
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D121" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F122" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F123" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F124" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G124" s="11">
         <v>1.5</v>
@@ -4965,25 +4977,25 @@
     <row r="125" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E126" s="8"/>
       <c r="F126" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E127" s="8"/>
       <c r="F127" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G127" s="4"/>
     </row>
@@ -4991,13 +5003,13 @@
       <c r="E128" s="8"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G129" s="8"/>
     </row>
@@ -5005,20 +5017,20 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E131" s="8"/>
       <c r="F131" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.15">
@@ -5027,37 +5039,37 @@
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D134" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F135" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F136" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F137" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G137" s="11">
         <v>1</v>
@@ -5066,25 +5078,25 @@
     <row r="138" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E139" s="8"/>
       <c r="F139" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E140" s="8"/>
       <c r="F140" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G140" s="4"/>
     </row>
@@ -5092,13 +5104,13 @@
       <c r="E141" s="8"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G142" s="8"/>
     </row>
@@ -5106,147 +5118,147 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F144" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F145" s="4"/>
       <c r="G145" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="3:13" x14ac:dyDescent="0.15">
       <c r="K146" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C147" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F147" s="8"/>
       <c r="K147" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C148" s="9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C149" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C150" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C151" s="9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C152" s="15" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
@@ -5254,70 +5266,70 @@
     </row>
     <row r="154" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C154" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C155" s="2"/>
       <c r="D155" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C156" s="2"/>
       <c r="E156" s="13" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C157" s="2"/>
       <c r="E157" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E158" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E159" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E161" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D162" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E163" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E164" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E165" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E166" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5329,50 +5341,50 @@
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" s="8"/>
       <c r="C170" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E170" s="8"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" s="8"/>
       <c r="C171" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E171" s="8"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" s="8"/>
       <c r="C172" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E172" s="8"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" s="8"/>
       <c r="C173" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E173" s="8"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" s="8"/>
       <c r="C174" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E174" s="8"/>
     </row>
@@ -5385,49 +5397,49 @@
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" s="8"/>
       <c r="C176" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B177" s="8"/>
       <c r="C177" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B178" s="8"/>
       <c r="C178" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B179" s="8"/>
       <c r="C179" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C180" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E180" s="8"/>
     </row>
@@ -5439,10 +5451,10 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C184" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
@@ -5450,10 +5462,10 @@
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C185" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
@@ -5461,10 +5473,10 @@
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C186" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
@@ -5472,10 +5484,10 @@
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C187" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
@@ -5484,10 +5496,10 @@
     <row r="188" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B188" s="8"/>
       <c r="C188" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
@@ -5508,10 +5520,10 @@
     <row r="190" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B190" s="8"/>
       <c r="C190" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
@@ -5522,10 +5534,10 @@
     <row r="191" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B191" s="8"/>
       <c r="C191" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
@@ -5536,10 +5548,10 @@
     <row r="192" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B192" s="8"/>
       <c r="C192" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
@@ -5550,10 +5562,10 @@
     <row r="193" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B193" s="8"/>
       <c r="C193" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
@@ -5564,10 +5576,10 @@
     <row r="194" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B194" s="8"/>
       <c r="C194" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
@@ -5578,13 +5590,13 @@
     <row r="195" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B195" s="8"/>
       <c r="C195" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
@@ -5595,10 +5607,10 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -5608,15 +5620,15 @@
     <row r="198" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B199" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C200" s="9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
@@ -5637,10 +5649,10 @@
     </row>
     <row r="201" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C201" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -5661,10 +5673,10 @@
     </row>
     <row r="202" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C202" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
@@ -5685,10 +5697,10 @@
     </row>
     <row r="203" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C203" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
@@ -5709,7 +5721,7 @@
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C204" s="9" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
@@ -5771,7 +5783,7 @@
     </row>
     <row r="207" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C207" s="9" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
@@ -5794,16 +5806,16 @@
     <row r="208" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C208" s="8"/>
       <c r="D208" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
@@ -5823,13 +5835,13 @@
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
@@ -5850,10 +5862,10 @@
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
       <c r="F210" s="8" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
@@ -5874,7 +5886,7 @@
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
       <c r="F211" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G211" s="16">
         <v>1</v>
@@ -5898,10 +5910,10 @@
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
@@ -5922,10 +5934,10 @@
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
       <c r="F213" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
@@ -5946,7 +5958,7 @@
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
       <c r="F214" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
@@ -5969,10 +5981,10 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
@@ -6010,16 +6022,16 @@
     <row r="217" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C217" s="8"/>
       <c r="D217" s="8" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -6040,10 +6052,10 @@
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
       <c r="F218" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
@@ -6064,10 +6076,10 @@
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
       <c r="F219" s="8" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
@@ -6088,7 +6100,7 @@
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
       <c r="F220" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G220" s="16">
         <v>1</v>
@@ -6112,10 +6124,10 @@
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
       <c r="F221" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
@@ -6136,10 +6148,10 @@
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
       <c r="F222" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
@@ -6160,7 +6172,7 @@
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
@@ -6183,10 +6195,10 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
@@ -6206,7 +6218,7 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
@@ -6229,10 +6241,10 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="G226" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
@@ -6270,16 +6282,16 @@
     <row r="228" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C228" s="8"/>
       <c r="D228" s="8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
@@ -6299,13 +6311,13 @@
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
@@ -6326,10 +6338,10 @@
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
@@ -6350,7 +6362,7 @@
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
       <c r="F231" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G231" s="16">
         <v>1</v>
@@ -6374,10 +6386,10 @@
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="F232" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
@@ -6398,10 +6410,10 @@
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="F233" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
@@ -6422,7 +6434,7 @@
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
@@ -6445,10 +6457,10 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
       <c r="G235" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
@@ -6468,7 +6480,7 @@
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
       <c r="F236" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
@@ -6491,7 +6503,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
       <c r="G237" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
@@ -6529,16 +6541,16 @@
     <row r="239" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C239" s="8"/>
       <c r="D239" s="8" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
@@ -6558,13 +6570,13 @@
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
@@ -6585,10 +6597,10 @@
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
       <c r="F241" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
@@ -6609,7 +6621,7 @@
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
       <c r="F242" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G242" s="16">
         <v>1</v>
@@ -6633,10 +6645,10 @@
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
       <c r="F243" s="8" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
@@ -6657,10 +6669,10 @@
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
       <c r="F244" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
@@ -6681,7 +6693,7 @@
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
       <c r="F245" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
@@ -6704,10 +6716,10 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
@@ -6727,7 +6739,7 @@
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
       <c r="F247" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
@@ -6750,7 +6762,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
@@ -6796,13 +6808,13 @@
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
       <c r="K250" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M250" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="N250" s="8"/>
       <c r="O250" s="8"/>
@@ -6814,13 +6826,13 @@
     </row>
     <row r="251" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C251" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
@@ -6828,7 +6840,7 @@
       <c r="I251"/>
       <c r="J251"/>
       <c r="K251" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="M251" s="8"/>
       <c r="N251" s="8"/>
@@ -6841,13 +6853,13 @@
     </row>
     <row r="252" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C252" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
@@ -6855,7 +6867,7 @@
       <c r="I252"/>
       <c r="J252"/>
       <c r="K252" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M252" s="8"/>
       <c r="N252" s="8"/>
@@ -6868,20 +6880,20 @@
     </row>
     <row r="253" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C253" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F253"/>
       <c r="G253" s="8"/>
       <c r="H253"/>
       <c r="J253"/>
       <c r="K253" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M253" s="18"/>
       <c r="N253" s="8"/>
@@ -6894,13 +6906,13 @@
     </row>
     <row r="254" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C254" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E254" s="19" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
@@ -6908,7 +6920,7 @@
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
       <c r="K254" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L254" s="8"/>
       <c r="M254" s="8"/>
@@ -6922,13 +6934,13 @@
     </row>
     <row r="255" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C255" s="9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E255" s="19" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
@@ -6936,7 +6948,7 @@
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
       <c r="K255" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
@@ -6950,13 +6962,13 @@
     </row>
     <row r="256" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C256" s="21" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="14"/>
@@ -6976,7 +6988,7 @@
     </row>
     <row r="257" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C257" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
@@ -6999,7 +7011,7 @@
     <row r="258" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C258" s="2"/>
       <c r="D258" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E258"/>
       <c r="F258"/>
@@ -7022,7 +7034,7 @@
       <c r="C259" s="2"/>
       <c r="D259"/>
       <c r="E259" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F259"/>
       <c r="G259" s="8"/>
@@ -7044,7 +7056,7 @@
       <c r="C260" s="2"/>
       <c r="D260"/>
       <c r="E260" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F260"/>
       <c r="G260" s="8"/>
@@ -7066,7 +7078,7 @@
       <c r="C261" s="2"/>
       <c r="D261"/>
       <c r="E261" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F261"/>
       <c r="G261" s="8"/>
@@ -7087,7 +7099,7 @@
     <row r="262" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C262" s="2"/>
       <c r="D262" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F262"/>
       <c r="G262" s="8"/>
@@ -7109,7 +7121,7 @@
       <c r="C263" s="2"/>
       <c r="D263"/>
       <c r="E263" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F263"/>
       <c r="G263" s="8"/>
@@ -7131,7 +7143,7 @@
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F264"/>
       <c r="G264" s="8"/>
@@ -7152,7 +7164,7 @@
     <row r="265" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C265"/>
       <c r="D265" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E265" s="8"/>
       <c r="F265"/>
@@ -7175,7 +7187,7 @@
       <c r="C266"/>
       <c r="D266"/>
       <c r="E266" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F266"/>
       <c r="G266" s="8"/>
@@ -7196,7 +7208,7 @@
     <row r="267" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C267"/>
       <c r="E267" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
@@ -7217,7 +7229,7 @@
     <row r="268" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C268"/>
       <c r="D268" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E268" s="8"/>
       <c r="F268"/>
@@ -7240,7 +7252,7 @@
       <c r="C269"/>
       <c r="D269"/>
       <c r="E269" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F269"/>
       <c r="G269" s="8"/>
@@ -7262,7 +7274,7 @@
       <c r="C270"/>
       <c r="D270"/>
       <c r="E270" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F270"/>
       <c r="G270" s="8"/>
@@ -7283,7 +7295,7 @@
     <row r="271" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C271"/>
       <c r="D271" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E271" s="7"/>
       <c r="F271" s="20"/>
@@ -7306,7 +7318,7 @@
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F272"/>
       <c r="G272" s="8"/>
@@ -7328,7 +7340,7 @@
       <c r="C273"/>
       <c r="D273" s="8"/>
       <c r="E273" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
@@ -7349,7 +7361,7 @@
     <row r="274" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C274"/>
       <c r="D274" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
@@ -7372,7 +7384,7 @@
       <c r="C275"/>
       <c r="D275" s="8"/>
       <c r="E275" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="8"/>
@@ -7394,7 +7406,7 @@
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
       <c r="E276" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
@@ -7414,7 +7426,7 @@
     </row>
     <row r="278" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D278" s="13" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>

--- a/gd/玩法规划/试练塔怪物设计.xlsx
+++ b/gd/玩法规划/试练塔怪物设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="试炼之塔怪物分布" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="412">
   <si>
     <t>试练塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,22 +412,6 @@
     <t>被动技能</t>
   </si>
   <si>
-    <r>
-      <t>法术攻击造成伤害时几率附加敌方防御力下降；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前置技能，给自己添加物理免疫buff</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大招音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,14 +445,6 @@
   </si>
   <si>
     <t>物攻</t>
-  </si>
-  <si>
-    <t>中斩/砸/刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中球/柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敌方单体防御力降低</t>
@@ -777,10 +753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强球/柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置技能，给自己添加法术免疫buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1002,6 +974,500 @@
   </si>
   <si>
     <t>群体木法术纯伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体火法术纯伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaochou41</t>
+  </si>
+  <si>
+    <t>firep2</t>
+  </si>
+  <si>
+    <t>火伊芙利特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容调整提示方向：</t>
+  </si>
+  <si>
+    <t>弱点列表</t>
+  </si>
+  <si>
+    <t>弱点1</t>
+  </si>
+  <si>
+    <t>胸（身体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点血量</t>
+  </si>
+  <si>
+    <t>无限</t>
+  </si>
+  <si>
+    <t>本体/铠甲</t>
+  </si>
+  <si>
+    <t>本体</t>
+  </si>
+  <si>
+    <t>受伤比</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始状态</t>
+  </si>
+  <si>
+    <t>正常状态1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点提示</t>
+  </si>
+  <si>
+    <t>本体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>弱点2</t>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体/铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铠甲</t>
+  </si>
+  <si>
+    <t>隐藏(显示mesh)</t>
+  </si>
+  <si>
+    <t>猜猜我在哪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find me</t>
+  </si>
+  <si>
+    <t>tips提示（显示）</t>
+  </si>
+  <si>
+    <t>提高智力</t>
+  </si>
+  <si>
+    <t>Increase Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右裤脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtrousers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左裤脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltrousers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>施法音效</t>
+  </si>
+  <si>
+    <t>命中音效</t>
+  </si>
+  <si>
+    <t>火焰踢1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%物攻火属性伤害附加2个XX%物攻的火属性dot；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新动作（踢腿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能2</t>
+  </si>
+  <si>
+    <t>火焰踢2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%物攻火属性伤害附加1个XX%物攻的火属性dot；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用上一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰踢3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%物攻火属性伤害；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%物攻火属性伤害附加火属性dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%物攻火属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每5回合使用技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家将弱点2，则由状态1转为状态2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每5回合使用技能5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家将弱点3或4打掉则由任意转为状态3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家将弱点3和4打掉则由任意状态转为状态4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.保底使用技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家将弱点2，3或4，则由任意状态转为状态5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家将弱点2，3和4，则由任意状态转为状态6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化之焰</t>
+  </si>
+  <si>
+    <t>怒火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自身提升XXX%力量，持续99回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每个阶段仍需判断是否总回合数&gt;=20，若满足条件则优先释放技能6（只会释放一次，用相同计数器判定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光momo（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火火鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火红牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水鬼（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性小丑需要配置死亡反应为群体伤害玩家怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性小丑需要配置死亡反应为群体治疗玩家怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若换ID，则ID配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaZouyincao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHongniu4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaMomo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLangren3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHuapo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLonggongtongzi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaSaibulesi4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaPanshen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaAmute3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLuoxinfu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaLongnv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaDaochengsizhong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaKairuisi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaShuigui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaWendige2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaXiaochou3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaHetong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaIfrit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaNvyao5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaWeitianshi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaChange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaDujiaoshou1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaXiaochou4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgshiliantaXiaochou2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木潘神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗凯瑞斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散己方减益buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于XX%，附加物理和魔法吸收盾；前置技能，给自己添加法术免疫buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE可选</t>
+  </si>
+  <si>
+    <t>群体光属性伤害并回复自身XX%法攻血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击时，若敌方拥有弱化效果则伤害量+XX%；前置技能，给自己添加法术免疫buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaMoguguai4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗皮影（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火红牛（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaPingying5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火蘑菇怪（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木走音草（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木潘神（新增逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火赛布勒斯（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水阿姆特（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙女（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗凯瑞斯（新增逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火道成寺钟（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木温迪戈（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火伊芙利特（新增逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水小丑（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木河童（原有设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>永久单体智力提升10%，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡时敌方群体受到火属性伤害</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1022,264 +1488,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>死亡时己方群体回复体力</t>
+      <t>死亡时敌方群体回复体力</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体火法术纯伤害（手动，点到爽型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiaochou41</t>
-  </si>
-  <si>
-    <t>firep2</t>
-  </si>
-  <si>
-    <t>火伊芙利特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵容调整提示方向：</t>
-  </si>
-  <si>
-    <t>弱点列表</t>
-  </si>
-  <si>
-    <t>弱点1</t>
-  </si>
-  <si>
-    <t>胸（身体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点血量</t>
-  </si>
-  <si>
-    <t>无限</t>
-  </si>
-  <si>
-    <t>本体/铠甲</t>
-  </si>
-  <si>
-    <t>本体</t>
-  </si>
-  <si>
-    <t>受伤比</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始状态</t>
-  </si>
-  <si>
-    <t>正常状态1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点提示</t>
-  </si>
-  <si>
-    <t>本体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>弱点2</t>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本体/铠甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铠甲</t>
-  </si>
-  <si>
-    <t>隐藏(显示mesh)</t>
-  </si>
-  <si>
-    <t>猜猜我在哪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find me</t>
-  </si>
-  <si>
-    <t>tips提示（显示）</t>
-  </si>
-  <si>
-    <t>提高智力</t>
-  </si>
-  <si>
-    <t>Increase Strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右裤脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rtrousers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左裤脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltrousers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>施法音效</t>
-  </si>
-  <si>
-    <t>命中音效</t>
-  </si>
-  <si>
-    <t>火焰踢1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方单体，造成XX%物攻火属性伤害附加2个XX%物攻的火属性dot；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新动作（踢腿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能2</t>
-  </si>
-  <si>
-    <t>火焰踢2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方单体，造成XX%物攻火属性伤害附加1个XX%物攻的火属性dot；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用上一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰踢3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方单体，造成XX%物攻火属性伤害；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方群体，造成XX%物攻火属性伤害附加火属性dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方单体，造成XX%物攻火属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.每5回合使用技能4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家将弱点2，则由状态1转为状态2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.每5回合使用技能5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家将弱点3或4打掉则由任意转为状态3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家将弱点3和4打掉则由任意状态转为状态4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.保底使用技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家将弱点2，3或4，则由任意状态转为状态5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家将弱点2，3和4，则由任意状态转为状态6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化之焰</t>
-  </si>
-  <si>
-    <t>怒火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给自身提升XXX%力量，持续99回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在每个阶段仍需判断是否总回合数&gt;=20，若满足条件则优先释放技能6（只会释放一次，用相同计数器判定）</t>
+    <t>fagong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>永久单体智力提升10%，</t>
+      <t>法术攻击造成伤害时几率附加敌方防御力下降；</t>
     </r>
     <r>
       <rPr>
@@ -1289,235 +1508,200 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>死亡时己方群体受到火属性伤害</t>
+      <t>前置技能，给自己添加物理免疫buff</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光momo（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火火鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火红牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水鬼（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火小丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火属性小丑需要配置死亡反应为群体伤害玩家怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木属性小丑需要配置死亡反应为群体治疗玩家怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木小丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若换ID，则ID配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaZouyincao2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaHongniu4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaMomo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLangren3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaHuapo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLonggongtongzi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaSaibulesi4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaPanshen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaAmute3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLuoxinfu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaLongnv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaDaochengsizhong4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaKairuisi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaShuigui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaWendige2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaXiaochou3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaHetong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaIfrit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaNvyao5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaWeitianshi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaChange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaDujiaoshou1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaXiaochou4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgshiliantaXiaochou2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木潘神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗凯瑞斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散己方减益buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于XX%，附加物理和魔法吸收盾；前置技能，给自己添加法术免疫buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE可选</t>
-  </si>
-  <si>
-    <t>群体光属性伤害并回复自身XX%法攻血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击时，若敌方拥有弱化效果则伤害量+XX%；前置技能，给自己添加法术免疫buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaMoguguai4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗皮影（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火红牛（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossshiliantaPingying5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火蘑菇怪（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木走音草（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木潘神（新增逻辑）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火赛布勒斯（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水阿姆特（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水龙女（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗凯瑞斯（新增逻辑）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火道成寺钟（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木温迪戈（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火伊芙利特（新增逻辑）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水小丑（原有设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木河童（原有设计）</t>
+    <t>前置技能无技能动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgBingxuenvwang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给敌方群体造成XX%的水属性伤害概率附带减速效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击几率附加减益效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方单体力量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方群体提升速度，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体光属性物理伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度永久增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物攻技能，概率附加眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshouzuo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshouzuo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgHuoniao3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方单体速度下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体法术水属性伤害并给己方群体添加加速buff（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次死亡时回复自身%体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2871,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="H20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2885,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2938,10 +3122,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E9" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2988,10 +3172,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3038,7 +3222,7 @@
         <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3084,10 +3268,10 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3133,10 +3317,10 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3185,10 +3369,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3235,7 +3419,7 @@
         <v>19</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3282,7 +3466,7 @@
         <v>49</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3304,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -3315,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -3326,10 +3510,10 @@
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3360,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.15">
@@ -3374,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
@@ -3382,10 +3566,10 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3434,10 +3618,10 @@
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3484,7 +3668,7 @@
         <v>51</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3528,10 +3712,10 @@
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3564,7 +3748,7 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -3575,10 +3759,10 @@
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3609,7 +3793,7 @@
         <v>5</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
@@ -3623,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.15">
@@ -3631,10 +3815,10 @@
         <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3683,10 +3867,10 @@
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3730,10 +3914,10 @@
         <v>9</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3758,13 +3942,13 @@
         <v>7</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G144" s="1">
         <v>5</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.15">
@@ -3772,13 +3956,13 @@
         <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.15">
@@ -3788,10 +3972,10 @@
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E148" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.15">
@@ -3801,12 +3985,12 @@
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E151" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E152" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3852,10 +4036,10 @@
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3901,10 +4085,10 @@
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E168" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="3:9" x14ac:dyDescent="0.15">
@@ -3927,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T278"/>
+  <dimension ref="A1:T320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3942,25 +4126,25 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
         <v>81</v>
       </c>
@@ -3968,7 +4152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
         <v>83</v>
       </c>
@@ -3979,7 +4163,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C6" s="9" t="s">
         <v>86</v>
       </c>
@@ -3987,7 +4171,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C7" s="9" t="s">
         <v>88</v>
       </c>
@@ -3995,11 +4179,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C9" s="9" t="s">
         <v>90</v>
       </c>
@@ -4007,7 +4191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C10" s="9" t="s">
         <v>92</v>
       </c>
@@ -4015,7 +4199,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
@@ -4023,7 +4207,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C12" s="9" t="s">
         <v>96</v>
       </c>
@@ -4031,57 +4215,60 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C13" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J13" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="D18" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>81</v>
@@ -4090,16 +4277,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="9" t="s">
         <v>86</v>
@@ -4108,92 +4295,95 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
       <c r="C22" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
       <c r="C25" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
       <c r="C28" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -4201,46 +4391,46 @@
         <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4249,10 +4439,10 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4261,7 +4451,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F42" s="11">
         <v>1</v>
@@ -4273,10 +4463,10 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -4285,10 +4475,10 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -4297,7 +4487,7 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4308,7 +4498,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -4324,16 +4514,16 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -4342,10 +4532,10 @@
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -4354,10 +4544,10 @@
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -4366,7 +4556,7 @@
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F51" s="11">
         <v>2</v>
@@ -4378,10 +4568,10 @@
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -4390,10 +4580,10 @@
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -4402,7 +4592,7 @@
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4413,7 +4603,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -4422,7 +4612,7 @@
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4433,7 +4623,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -4442,7 +4632,7 @@
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4453,7 +4643,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -4467,24 +4657,24 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -4492,50 +4682,50 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="K62" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="K63" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>94</v>
@@ -4543,27 +4733,27 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="11"/>
       <c r="I64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
@@ -4573,41 +4763,41 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
       <c r="D68" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
       <c r="D69" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
       <c r="D70" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D71" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4618,10 +4808,10 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
@@ -4629,7 +4819,7 @@
         <v>81</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
@@ -4637,10 +4827,10 @@
         <v>83</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
@@ -4663,7 +4853,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C81" s="9" t="s">
         <v>90</v>
       </c>
@@ -4671,77 +4861,80 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C82" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C83" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C84" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C85" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-    </row>
-    <row r="87" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J85" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B88" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C89" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C90" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C91" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C92" s="9" t="s">
         <v>86</v>
       </c>
@@ -4749,92 +4942,95 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C93" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C94" s="9"/>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C95" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C96" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C97" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C98" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C99" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
-    </row>
-    <row r="101" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J99" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C103" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C104" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C105" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C106" s="9" t="s">
         <v>86</v>
       </c>
@@ -4842,58 +5038,58 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C107" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C108" s="2"/>
       <c r="D108" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C111" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D112" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="G112" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G115" s="11">
         <v>1</v>
@@ -4902,25 +5098,25 @@
     <row r="116" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E117" s="8"/>
       <c r="F117" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E118" s="8"/>
       <c r="F118" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G118" s="4"/>
     </row>
@@ -4928,7 +5124,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.15">
@@ -4938,37 +5134,37 @@
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D121" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F122" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F123" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F124" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G124" s="11">
         <v>1.5</v>
@@ -4977,25 +5173,25 @@
     <row r="125" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E126" s="8"/>
       <c r="F126" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E127" s="8"/>
       <c r="F127" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G127" s="4"/>
     </row>
@@ -5003,13 +5199,13 @@
       <c r="E128" s="8"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G129" s="8"/>
     </row>
@@ -5017,20 +5213,20 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E131" s="8"/>
       <c r="F131" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.15">
@@ -5039,37 +5235,37 @@
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D134" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F135" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F136" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F137" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G137" s="11">
         <v>1</v>
@@ -5078,25 +5274,25 @@
     <row r="138" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E139" s="8"/>
       <c r="F139" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E140" s="8"/>
       <c r="F140" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G140" s="4"/>
     </row>
@@ -5104,13 +5300,13 @@
       <c r="E141" s="8"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G142" s="8"/>
     </row>
@@ -5118,218 +5314,221 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F144" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F145" s="4"/>
       <c r="G145" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="3:13" x14ac:dyDescent="0.15">
       <c r="K146" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C147" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F147" s="8"/>
       <c r="K147" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C148" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C149" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C150" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J150" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="K150" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C151" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K151" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L151" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L151" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="M151" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C152" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
+      <c r="K152" s="13" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="154" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C154" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C155" s="2"/>
       <c r="D155" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C156" s="2"/>
       <c r="E156" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C157" s="2"/>
       <c r="E157" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E158" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="159" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E159" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E161" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D162" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E163" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E164" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E165" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E166" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5341,10 +5540,10 @@
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" s="8"/>
       <c r="C170" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E170" s="8"/>
     </row>
@@ -5354,7 +5553,7 @@
         <v>81</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E171" s="8"/>
     </row>
@@ -5364,7 +5563,7 @@
         <v>83</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E172" s="8"/>
     </row>
@@ -5397,7 +5596,7 @@
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" s="8"/>
       <c r="C176" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>91</v>
@@ -5410,7 +5609,7 @@
         <v>92</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E177" s="8"/>
     </row>
@@ -5420,7 +5619,7 @@
         <v>94</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E178" s="8"/>
     </row>
@@ -5430,7 +5629,7 @@
         <v>96</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E179" s="8"/>
     </row>
@@ -5439,7 +5638,7 @@
         <v>98</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="E180" s="8"/>
     </row>
@@ -5451,10 +5650,10 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C184" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
@@ -5465,7 +5664,7 @@
         <v>81</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
@@ -5476,7 +5675,7 @@
         <v>83</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
@@ -5520,7 +5719,7 @@
     <row r="190" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B190" s="8"/>
       <c r="C190" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>91</v>
@@ -5537,7 +5736,7 @@
         <v>92</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
@@ -5551,7 +5750,7 @@
         <v>94</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
@@ -5565,7 +5764,7 @@
         <v>96</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
@@ -5579,7 +5778,7 @@
         <v>98</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
@@ -5590,13 +5789,13 @@
     <row r="195" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B195" s="8"/>
       <c r="C195" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D195" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D195" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="E195" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
@@ -5607,10 +5806,10 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -5620,15 +5819,15 @@
     <row r="198" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B199" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C200" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
@@ -5652,7 +5851,7 @@
         <v>81</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -5676,7 +5875,7 @@
         <v>83</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
@@ -5700,7 +5899,7 @@
         <v>86</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
@@ -5721,7 +5920,7 @@
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C204" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
@@ -5783,7 +5982,7 @@
     </row>
     <row r="207" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C207" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
@@ -5806,16 +6005,16 @@
     <row r="208" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C208" s="8"/>
       <c r="D208" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F208" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
@@ -5835,13 +6034,13 @@
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
@@ -5862,10 +6061,10 @@
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
       <c r="F210" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
@@ -5886,7 +6085,7 @@
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
       <c r="F211" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G211" s="16">
         <v>1</v>
@@ -5910,10 +6109,10 @@
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
@@ -5934,10 +6133,10 @@
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
       <c r="F213" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
@@ -5958,7 +6157,7 @@
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
       <c r="F214" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
@@ -5981,10 +6180,10 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
@@ -6022,16 +6221,16 @@
     <row r="217" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C217" s="8"/>
       <c r="D217" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F217" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -6052,10 +6251,10 @@
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
       <c r="F218" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
@@ -6076,10 +6275,10 @@
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
       <c r="F219" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
@@ -6100,7 +6299,7 @@
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
       <c r="F220" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G220" s="16">
         <v>1</v>
@@ -6124,10 +6323,10 @@
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
       <c r="F221" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
@@ -6148,10 +6347,10 @@
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
       <c r="F222" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
@@ -6172,7 +6371,7 @@
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
@@ -6195,10 +6394,10 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
@@ -6218,7 +6417,7 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
@@ -6241,10 +6440,10 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="G226" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
@@ -6282,16 +6481,16 @@
     <row r="228" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C228" s="8"/>
       <c r="D228" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
@@ -6311,13 +6510,13 @@
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
@@ -6338,10 +6537,10 @@
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
@@ -6362,7 +6561,7 @@
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
       <c r="F231" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G231" s="16">
         <v>1</v>
@@ -6386,10 +6585,10 @@
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="F232" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
@@ -6410,10 +6609,10 @@
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="F233" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
@@ -6434,7 +6633,7 @@
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
@@ -6457,10 +6656,10 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
       <c r="G235" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
@@ -6480,7 +6679,7 @@
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
       <c r="F236" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
@@ -6503,7 +6702,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
       <c r="G237" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
@@ -6541,16 +6740,16 @@
     <row r="239" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C239" s="8"/>
       <c r="D239" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F239" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
@@ -6570,13 +6769,13 @@
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
@@ -6597,10 +6796,10 @@
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
       <c r="F241" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
@@ -6621,7 +6820,7 @@
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
       <c r="F242" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G242" s="16">
         <v>1</v>
@@ -6645,10 +6844,10 @@
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
       <c r="F243" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
@@ -6669,10 +6868,10 @@
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
       <c r="F244" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
@@ -6693,7 +6892,7 @@
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
       <c r="F245" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
@@ -6716,10 +6915,10 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
@@ -6739,7 +6938,7 @@
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
       <c r="F247" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
@@ -6762,7 +6961,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
@@ -6808,13 +7007,13 @@
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
       <c r="K250" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M250" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N250" s="8"/>
       <c r="O250" s="8"/>
@@ -6826,13 +7025,13 @@
     </row>
     <row r="251" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C251" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
@@ -6840,7 +7039,7 @@
       <c r="I251"/>
       <c r="J251"/>
       <c r="K251" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M251" s="8"/>
       <c r="N251" s="8"/>
@@ -6853,13 +7052,13 @@
     </row>
     <row r="252" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C252" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
@@ -6867,7 +7066,7 @@
       <c r="I252"/>
       <c r="J252"/>
       <c r="K252" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M252" s="8"/>
       <c r="N252" s="8"/>
@@ -6880,20 +7079,20 @@
     </row>
     <row r="253" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C253" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F253"/>
       <c r="G253" s="8"/>
       <c r="H253"/>
       <c r="J253"/>
       <c r="K253" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M253" s="18"/>
       <c r="N253" s="8"/>
@@ -6906,13 +7105,13 @@
     </row>
     <row r="254" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C254" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E254" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
@@ -6920,7 +7119,7 @@
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
       <c r="K254" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L254" s="8"/>
       <c r="M254" s="8"/>
@@ -6934,13 +7133,13 @@
     </row>
     <row r="255" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C255" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E255" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
@@ -6948,7 +7147,7 @@
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
       <c r="K255" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
@@ -6962,20 +7161,22 @@
     </row>
     <row r="256" spans="3:20" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C256" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="14"/>
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
       <c r="J256" s="14"/>
-      <c r="K256" s="14"/>
+      <c r="K256" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="L256" s="14"/>
       <c r="M256" s="8"/>
       <c r="N256" s="8"/>
@@ -7011,7 +7212,7 @@
     <row r="258" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C258" s="2"/>
       <c r="D258" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E258"/>
       <c r="F258"/>
@@ -7034,7 +7235,7 @@
       <c r="C259" s="2"/>
       <c r="D259"/>
       <c r="E259" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F259"/>
       <c r="G259" s="8"/>
@@ -7056,7 +7257,7 @@
       <c r="C260" s="2"/>
       <c r="D260"/>
       <c r="E260" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F260"/>
       <c r="G260" s="8"/>
@@ -7078,7 +7279,7 @@
       <c r="C261" s="2"/>
       <c r="D261"/>
       <c r="E261" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F261"/>
       <c r="G261" s="8"/>
@@ -7099,7 +7300,7 @@
     <row r="262" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C262" s="2"/>
       <c r="D262" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F262"/>
       <c r="G262" s="8"/>
@@ -7121,7 +7322,7 @@
       <c r="C263" s="2"/>
       <c r="D263"/>
       <c r="E263" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F263"/>
       <c r="G263" s="8"/>
@@ -7143,7 +7344,7 @@
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F264"/>
       <c r="G264" s="8"/>
@@ -7164,7 +7365,7 @@
     <row r="265" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C265"/>
       <c r="D265" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E265" s="8"/>
       <c r="F265"/>
@@ -7187,7 +7388,7 @@
       <c r="C266"/>
       <c r="D266"/>
       <c r="E266" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F266"/>
       <c r="G266" s="8"/>
@@ -7208,7 +7409,7 @@
     <row r="267" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C267"/>
       <c r="E267" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
@@ -7229,7 +7430,7 @@
     <row r="268" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C268"/>
       <c r="D268" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E268" s="8"/>
       <c r="F268"/>
@@ -7252,7 +7453,7 @@
       <c r="C269"/>
       <c r="D269"/>
       <c r="E269" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F269"/>
       <c r="G269" s="8"/>
@@ -7274,7 +7475,7 @@
       <c r="C270"/>
       <c r="D270"/>
       <c r="E270" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F270"/>
       <c r="G270" s="8"/>
@@ -7295,7 +7496,7 @@
     <row r="271" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C271"/>
       <c r="D271" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E271" s="7"/>
       <c r="F271" s="20"/>
@@ -7318,7 +7519,7 @@
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F272"/>
       <c r="G272" s="8"/>
@@ -7336,11 +7537,11 @@
       <c r="S272" s="8"/>
       <c r="T272" s="8"/>
     </row>
-    <row r="273" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C273"/>
       <c r="D273" s="8"/>
       <c r="E273" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
@@ -7358,10 +7559,10 @@
       <c r="S273" s="8"/>
       <c r="T273" s="8"/>
     </row>
-    <row r="274" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C274"/>
       <c r="D274" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
@@ -7380,11 +7581,11 @@
       <c r="S274" s="8"/>
       <c r="T274" s="8"/>
     </row>
-    <row r="275" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C275"/>
       <c r="D275" s="8"/>
       <c r="E275" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="8"/>
@@ -7402,11 +7603,11 @@
       <c r="S275" s="8"/>
       <c r="T275" s="8"/>
     </row>
-    <row r="276" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
       <c r="E276" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
@@ -7424,9 +7625,9 @@
       <c r="S276" s="8"/>
       <c r="T276" s="8"/>
     </row>
-    <row r="278" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.15">
       <c r="D278" s="13" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
@@ -7435,6 +7636,343 @@
       <c r="I278" s="13"/>
       <c r="J278" s="13"/>
     </row>
+    <row r="280" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="281" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B281" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="282" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B282" s="2"/>
+      <c r="C282" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="283" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B283" s="2"/>
+      <c r="C283" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="284" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B284" s="2"/>
+      <c r="C284" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="285" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B285" s="2"/>
+      <c r="C285" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="286" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B286" s="2"/>
+      <c r="C286" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="287" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B288" s="2"/>
+      <c r="C288" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B289" s="2"/>
+      <c r="C289" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B290" s="2"/>
+      <c r="C290" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B291" s="2"/>
+      <c r="C291" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B292" s="2"/>
+      <c r="C292" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B295" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C296" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F296" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G296" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C297" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F297" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C298" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F298" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G298" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C299" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C300" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D300" s="8"/>
+      <c r="F300" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G300" s="8"/>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C301" s="9"/>
+      <c r="D301" s="8"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="8"/>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C302" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F302" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G302" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C303" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F303" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C304" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F304" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G304" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C305" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F305" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C306" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F306" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G306" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B309" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C310" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C311" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C312" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C313" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C314" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C315" s="9"/>
+      <c r="D315" s="8"/>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C316" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C317" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C318" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C319" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C320" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
